--- a/data/openai_pricing.xlsx
+++ b/data/openai_pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\chatGPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258817A-4EBD-4BA9-9B49-CF56A73D5036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF9793-B6C7-4EB6-B589-13EED1FCC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31910" yWindow="1040" windowWidth="24100" windowHeight="18970" activeTab="2" xr2:uid="{353F59C6-DBF7-451A-8922-D56999185FE0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -191,15 +191,6 @@
   <si>
     <t>모형구분</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPT-5</t>
-  </si>
-  <si>
-    <t>GPT-6</t>
-  </si>
-  <si>
-    <t>GPT-7</t>
   </si>
 </sst>
 </file>
@@ -338,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,10 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -722,7 +710,7 @@
       <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -764,7 +752,7 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
@@ -948,7 +936,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="17"/>
@@ -961,363 +949,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/openai_pricing.xlsx
+++ b/data/openai_pricing.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\chatGPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF9793-B6C7-4EB6-B589-13EED1FCC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466FEB98-F85F-4807-B945-5187D85A360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31910" yWindow="1040" windowWidth="24100" windowHeight="18970" activeTab="2" xr2:uid="{353F59C6-DBF7-451A-8922-D56999185FE0}"/>
+    <workbookView xWindow="-36950" yWindow="410" windowWidth="35330" windowHeight="19430" activeTab="4" xr2:uid="{353F59C6-DBF7-451A-8922-D56999185FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
     <sheet name="---" sheetId="3" r:id="rId2"/>
     <sheet name="price" sheetId="2" r:id="rId3"/>
+    <sheet name="-" sheetId="4" r:id="rId4"/>
+    <sheet name="price_230721" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <t>Model</t>
   </si>
@@ -191,13 +193,70 @@
   <si>
     <t>모형구분</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>4K context</t>
+  </si>
+  <si>
+    <t>$0.0015 / 1K tokens</t>
+  </si>
+  <si>
+    <t>$0.002 / 1K tokens</t>
+  </si>
+  <si>
+    <t>16K context</t>
+  </si>
+  <si>
+    <t>$0.003 / 1K tokens</t>
+  </si>
+  <si>
+    <t>$0.004 / 1K tokens</t>
+  </si>
+  <si>
+    <t>GPT-3.5 Turbo</t>
+  </si>
+  <si>
+    <t>Ada v2</t>
+  </si>
+  <si>
+    <t>$0.0001 / 1K tokens</t>
+  </si>
+  <si>
+    <t>Usage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image models</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$0.006 / minute </t>
+  </si>
+  <si>
+    <t>Audio models</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DALL·E 2</t>
+  </si>
+  <si>
+    <t>DALL·E 3</t>
+  </si>
+  <si>
+    <t>DALL·E 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +335,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="마루 부리 중간"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -324,12 +408,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,9 +462,31 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF03391-7B62-41FB-96ED-98995F9B401F}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="17"/>
@@ -1314,4 +1423,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4599355-D2B6-47F7-A850-7B3E4B56C3E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EF9C9C-3088-4312-9F99-D5094681CA86}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="49.08203125" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.9140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="49.08203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="str">
+        <f t="shared" ref="A3:B3" si="0">A2</f>
+        <v>GPT-4</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>8K context</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="str">
+        <f t="shared" ref="A5:B5" si="1">A4</f>
+        <v>GPT-4</v>
+      </c>
+      <c r="B5" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>32K context</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="str">
+        <f t="shared" ref="A7:B7" si="2">A6</f>
+        <v>GPT-3.5 Turbo</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>4K context</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18" t="str">
+        <f t="shared" ref="A9:B9" si="3">A8</f>
+        <v>GPT-3.5 Turbo</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>16K context</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18" t="str">
+        <f t="shared" ref="A11:B11" si="4">A10</f>
+        <v>Fine-tuning models</v>
+      </c>
+      <c r="B11" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Ada</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="str">
+        <f t="shared" ref="A13:B13" si="5">A12</f>
+        <v>Fine-tuning models</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Babbage</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18" t="str">
+        <f t="shared" ref="A15:B15" si="6">A14</f>
+        <v>Fine-tuning models</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>Curie</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="str">
+        <f t="shared" ref="A17:B17" si="7">A16</f>
+        <v>Fine-tuning models</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>Davinci</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" display="https://openai.com/dall-e-2" xr:uid="{13FC881D-A07E-424E-ABA8-02E01B716141}"/>
+    <hyperlink ref="B20:B21" r:id="rId2" display="https://openai.com/dall-e-2" xr:uid="{DB0100F5-965D-44B4-9D76-022D28D66B5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>